--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-23.70038438722496</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.74804153912286</v>
+        <v>-12.57582138322891</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.489834076080313</v>
+        <v>-6.393574419877624</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.526797685310972</v>
+        <v>-3.499336133739511</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-23.1972709727479</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.06007751339684</v>
+        <v>-12.88112030604029</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.411888639601088</v>
+        <v>-6.318093042859324</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.92799447781688</v>
+        <v>-3.889923781344213</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-22.69255715901264</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.48827140182185</v>
+        <v>-13.32052468721113</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.350037813727747</v>
+        <v>-6.257518247778248</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.308305432987327</v>
+        <v>-4.243364754774095</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-22.23058449497125</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.70503041027339</v>
+        <v>-13.541092232012</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.007567771707222</v>
+        <v>-5.934193556648562</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.533791318696311</v>
+        <v>-4.470977358470188</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-21.79653335592857</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.05654511499771</v>
+        <v>-13.91275942304174</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.823912228751562</v>
+        <v>-5.760511587701409</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.59586703888553</v>
+        <v>-4.526022686784783</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-21.41457118491701</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.87026652892017</v>
+        <v>-14.7219438385917</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.656077512017238</v>
+        <v>-5.592251527369664</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.580491112289082</v>
+        <v>-4.503611479306845</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-21.06147346978781</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.28020486570412</v>
+        <v>-15.13905923745629</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.364467808433229</v>
+        <v>-5.31150519704394</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.617559562354032</v>
+        <v>-4.535243353735785</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-20.75082260391807</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.80665312513352</v>
+        <v>-15.67174586964787</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.112566618622304</v>
+        <v>-5.068961566376289</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.301959502074071</v>
+        <v>-4.233630742102068</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-20.47154112219429</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.46376498208809</v>
+        <v>-16.33162001548225</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.967988907553894</v>
+        <v>-4.925928781477825</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.431205287607835</v>
+        <v>-4.359933345501949</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-20.20515941467962</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.03277204629399</v>
+        <v>-16.88874190399467</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.022310662852187</v>
+        <v>-4.985207989739169</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.090534400114334</v>
+        <v>-4.012769856889185</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-19.9629832962421</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.8849650552522</v>
+        <v>-17.74198604942927</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.918927723644403</v>
+        <v>-4.877825842914249</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.825848457346426</v>
+        <v>-3.759397076011318</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-19.72512405141438</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.64746923323685</v>
+        <v>-18.49685359868781</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.810230433972283</v>
+        <v>-4.763911982915131</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.368237414603187</v>
+        <v>-3.31461967629373</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-19.50768463709733</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.42558401014757</v>
+        <v>-19.27679686416675</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.67312312539652</v>
+        <v>-4.642654834601906</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.936640777398802</v>
+        <v>-2.883115930219817</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-19.32706710729198</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.23917342088462</v>
+        <v>-20.08306254261716</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.468576856098533</v>
+        <v>-4.434471144194934</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.714978095059745</v>
+        <v>-2.664846218646399</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-19.18220707321938</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.89916001387694</v>
+        <v>-20.73609696784472</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.170684778690538</v>
+        <v>-4.149852720430613</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.12281669433214</v>
+        <v>-2.065126413302544</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-19.09884436113461</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.01513449933268</v>
+        <v>-21.84445926960868</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.940182771936099</v>
+        <v>-3.919873837410934</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.921761175937129</v>
+        <v>-1.855104456313611</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-19.06696180541113</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.72188444300703</v>
+        <v>-22.54028228293548</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.510688407684488</v>
+        <v>-3.489030107264055</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.577076413805892</v>
+        <v>-1.496182906185917</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-19.07669857857446</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.61102856586539</v>
+        <v>-23.42575476163678</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.313358312522066</v>
+        <v>-3.298422396543641</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.248432483205002</v>
+        <v>-1.145572667731978</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-19.12493353628048</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.28110606903102</v>
+        <v>-24.08262705725487</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.996790228882457</v>
+        <v>-2.981292077114336</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.595913757264115</v>
+        <v>-1.476719769848729</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-19.17598359815358</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.94971687013657</v>
+        <v>-24.74915025242825</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.7528141192028</v>
+        <v>-2.741437400223489</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.523018664878413</v>
+        <v>-1.412267992322189</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-19.22449336526348</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.53522922152517</v>
+        <v>-25.3367844327971</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.536822684829365</v>
+        <v>-2.519618269664691</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.830952762391051</v>
+        <v>-1.71395393905891</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-19.25263752112274</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.96483114392786</v>
+        <v>-25.77608614482374</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.263341418707876</v>
+        <v>-2.259772443695028</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.933108560875239</v>
+        <v>-1.812042083829824</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-19.24173448358737</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.39335259581295</v>
+        <v>-26.18791163825832</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.09137549117101</v>
+        <v>-2.088740316469742</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.367394151856427</v>
+        <v>-2.237170564949281</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-19.20577869649811</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.75361617832561</v>
+        <v>-26.55239198919369</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.882531784837004</v>
+        <v>-1.880507735994101</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.353616930505461</v>
+        <v>-2.22652230799314</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-19.13153537499988</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.85282146116562</v>
+        <v>-26.65907500803664</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.911640931722616</v>
+        <v>-1.904942992314942</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.847338177967734</v>
+        <v>-2.715447439718969</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-19.03725186514325</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.99982411964002</v>
+        <v>-26.81025043387196</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.760399504294602</v>
+        <v>-1.760262612102328</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.980915623585584</v>
+        <v>-2.845260350049295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-18.93973689449736</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.89546337905885</v>
+        <v>-26.70078801462516</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.657485909746042</v>
+        <v>-1.664609192751137</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.043631803674369</v>
+        <v>-2.908558321955243</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-18.84100059991247</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.7789607899237</v>
+        <v>-26.58338829272994</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.83749914258585</v>
+        <v>-1.834800410795313</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.123933741463447</v>
+        <v>-3.006949585151906</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-18.77126612733518</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.74302414494844</v>
+        <v>-26.55960082981896</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.945575528385872</v>
+        <v>-1.935254834889815</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.457711129274597</v>
+        <v>-3.340790530052326</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-18.7309773301027</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.39245790755631</v>
+        <v>-26.21893238682889</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.002283119035219</v>
+        <v>-1.997247441962296</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.566779983468603</v>
+        <v>-3.45887960191579</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-18.72844221224165</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.1192895378743</v>
+        <v>-25.95653938828157</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.010183754132153</v>
+        <v>-1.98957170118124</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.642315139562439</v>
+        <v>-3.5299706507676</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-18.77660931365097</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.69736335625267</v>
+        <v>-25.53988844506934</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.927349310786013</v>
+        <v>-1.923726556697629</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.637113236256041</v>
+        <v>-3.525198980065491</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-18.8559082986557</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.22154076293018</v>
+        <v>-25.06941442525925</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.176243761373786</v>
+        <v>-2.154829911296699</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.195435466892078</v>
+        <v>-3.097259319997559</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-18.97113797377811</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.75606819714494</v>
+        <v>-24.60537922749289</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.189571194092997</v>
+        <v>-2.168040007851103</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.289367955826115</v>
+        <v>-3.191983828044036</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-19.10578624206552</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.37563990580968</v>
+        <v>-24.2360978718142</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.313893749711777</v>
+        <v>-2.287449111568634</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.161505759235688</v>
+        <v>-3.059467296916306</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-19.23762008250572</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.94768557872115</v>
+        <v>-23.82357813940452</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.278458227940377</v>
+        <v>-2.256672813341404</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.724423656326625</v>
+        <v>-2.634945052648348</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-19.37129456955191</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.6498766144299</v>
+        <v>-23.52308999935019</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.411991672496425</v>
+        <v>-2.38799153778674</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.411214320404586</v>
+        <v>-2.33450580266269</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-19.48048949278626</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.15957767177446</v>
+        <v>-23.04494512776591</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.230839301056625</v>
+        <v>-2.208222755290277</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.226175188505589</v>
+        <v>-2.153500101428898</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-19.56939487962289</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.47997149422522</v>
+        <v>-22.37185599637026</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.446757400327057</v>
+        <v>-2.426629359055969</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.815097713121646</v>
+        <v>-1.729637873087973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-19.63742035196362</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.92488343256943</v>
+        <v>-21.82931801534184</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.419799416462888</v>
+        <v>-2.400766512729989</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.588834475320822</v>
+        <v>-1.502646173263979</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-19.6724695701195</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.2515840738785</v>
+        <v>-21.15629244103546</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.570375938957002</v>
+        <v>-2.558725435593144</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.296315416459567</v>
+        <v>-1.20159090841309</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-19.69224480969553</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.76027310680162</v>
+        <v>-20.66966025353021</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.420796773863739</v>
+        <v>-2.420967889104081</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.196428117161628</v>
+        <v>-1.099704005306583</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-19.68609545018048</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.96155116594685</v>
+        <v>-19.86931027338877</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.439736786466168</v>
+        <v>-2.425969343128935</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.134088390601595</v>
+        <v>-1.039872339269277</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-19.66103883311582</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.56495003989585</v>
+        <v>-19.4865205917368</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.405376846205489</v>
+        <v>-2.398023779877649</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.8984920386918308</v>
+        <v>-0.8153202538718737</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-19.62908417931333</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.90512967313701</v>
+        <v>-18.83093899393157</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.45770388670208</v>
+        <v>-2.448918341362234</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8768728503263329</v>
+        <v>-0.7974949348351018</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-19.57865445930728</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.43394185832435</v>
+        <v>-18.36774470534631</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.447422305260958</v>
+        <v>-2.440274577221528</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.091470917742698</v>
+        <v>-1.01202455615533</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-19.52735111814579</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.85923910111849</v>
+        <v>-17.79524689023744</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.572414654820505</v>
+        <v>-2.563722000611131</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.226681291654097</v>
+        <v>-1.130358078362139</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-19.47199517582904</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.34395244436626</v>
+        <v>-17.29095072092203</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.558764547648079</v>
+        <v>-2.556921392059252</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.366047321402375</v>
+        <v>-1.261080343969711</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-19.40814368181654</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.90656233402458</v>
+        <v>-16.85802916285671</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.75254522382512</v>
+        <v>-2.748296676857771</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.670275551709892</v>
+        <v>-1.559353763913325</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-19.35190713919629</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.44988998059979</v>
+        <v>-16.40729695277522</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.593530275478711</v>
+        <v>-2.588665713646131</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.827594014673481</v>
+        <v>-1.707529784035783</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-19.28679043527062</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.9657462975898</v>
+        <v>-15.93380152672138</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.59449829883836</v>
+        <v>-2.590983102901048</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.119272164353626</v>
+        <v>-1.976928729423398</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-19.22565228131457</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.64653815024206</v>
+        <v>-15.6066047421531</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.656422459814705</v>
+        <v>-2.644977294739257</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.279098687839943</v>
+        <v>-2.151422273510459</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-19.17031456808053</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.08792022562835</v>
+        <v>-15.05433763745952</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.525959311571079</v>
+        <v>-2.520742741244081</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.370552450292454</v>
+        <v>-2.239800850643681</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-19.11173221015175</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.52506842106791</v>
+        <v>-14.49532859229646</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.600902897834019</v>
+        <v>-2.591736009958553</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.587687912272748</v>
+        <v>-2.464714722549236</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-19.06807757442469</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.24822840722885</v>
+        <v>-14.21869391674581</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.475939882315673</v>
+        <v>-2.481870247645241</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.765393533871372</v>
+        <v>-2.622404750034711</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-19.02416067665465</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.97981704122835</v>
+        <v>-13.95153413650324</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.638201131221713</v>
+        <v>-2.626487070768585</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.849430672906773</v>
+        <v>-2.717466599555005</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-18.98622547886247</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.44843088486336</v>
+        <v>-13.41431539494603</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.569759924091771</v>
+        <v>-2.5709968428291</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.200114246463715</v>
+        <v>-3.054118723403902</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-18.95820890623375</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.07384984574094</v>
+        <v>-13.04472114282786</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.77723470850304</v>
+        <v>-2.780842795570823</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.178910623681905</v>
+        <v>-3.044682940150755</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-18.92332253439672</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.5367093282936</v>
+        <v>-12.50842642356849</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.790684366393923</v>
+        <v>-2.777557382956257</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.998012480599185</v>
+        <v>-2.870032947843953</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-18.89249300750465</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.31127233265328</v>
+        <v>-12.29209764772124</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.817759686422898</v>
+        <v>-2.814014707162841</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.230870988663478</v>
+        <v>-3.104446160091924</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-18.85246227575089</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.96569777127226</v>
+        <v>-11.94815601463377</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.72387608755753</v>
+        <v>-2.718327064763582</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.304553211154753</v>
+        <v>-3.20097960067916</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-18.79534293937412</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.79201580232511</v>
+        <v>-11.77852214337243</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.8696418272946</v>
+        <v>-2.866498195879173</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.405931657547101</v>
+        <v>-3.304998110779642</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-18.72852919455212</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.77397536698619</v>
+        <v>-11.74707605120443</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.926403197019482</v>
+        <v>-2.921768418509647</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.363710194244423</v>
+        <v>-3.266409179579082</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-18.63214233375873</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.51813363764053</v>
+        <v>-11.48744534153691</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.122599042588779</v>
+        <v>-3.10968228644639</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.356005119422166</v>
+        <v>-3.261192609252084</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-18.51550608248989</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.46266296572852</v>
+        <v>-11.44228069610035</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.93864038120737</v>
+        <v>-2.940444424741262</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.628073462559116</v>
+        <v>-3.541743379303131</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-18.37576476453869</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.35835111521602</v>
+        <v>-11.34607970798006</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.243621518572392</v>
+        <v>-3.241177015138934</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.713807086977336</v>
+        <v>-3.632375788602001</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.20537408496974</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.36949316186572</v>
+        <v>-11.34952645782124</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.339851840733878</v>
+        <v>-3.336087305446354</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.623155121650999</v>
+        <v>-3.536096576371845</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.02186643626452</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.34057957525478</v>
+        <v>-11.30829746291255</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.184019635857831</v>
+        <v>-3.186239244975411</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.635563421079229</v>
+        <v>-3.551496948002627</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-17.81255615080443</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.23816465940665</v>
+        <v>-11.23042536153632</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.212693661132288</v>
+        <v>-3.20978959105334</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.605950706486325</v>
+        <v>-3.509647049221835</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-17.58959486672262</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.29730208646885</v>
+        <v>-11.27670958954541</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.293816952075007</v>
+        <v>-3.298402840516174</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.69150343765047</v>
+        <v>-3.591831254654675</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-17.36033312659628</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.44397718148317</v>
+        <v>-11.43711790484889</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.367797403985164</v>
+        <v>-3.37466645863318</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.779867347763091</v>
+        <v>-3.683285017107186</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-17.1186798200867</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.37642088459614</v>
+        <v>-11.37844982244591</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.561499856052335</v>
+        <v>-3.569923614884029</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.62600541265441</v>
+        <v>-3.523517161703273</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-16.88548890027991</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54000705436311</v>
+        <v>-11.54619653705663</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.652782503264504</v>
+        <v>-3.643239161860286</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.358381176759486</v>
+        <v>-3.250603020378346</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-16.65722768299128</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.58430634558423</v>
+        <v>-11.59477859829316</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.709558540009987</v>
+        <v>-3.704943317527619</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.342643463654887</v>
+        <v>-3.23367238959822</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-16.43961000026538</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.94084206036087</v>
+        <v>-11.94545239383637</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.813107705451245</v>
+        <v>-3.804537276413543</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.156059405585945</v>
+        <v>-3.046824325158464</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-16.24484387609038</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.33603026342734</v>
+        <v>-12.34660029627361</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.848386779002904</v>
+        <v>-3.849535695616629</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.103077238169188</v>
+        <v>-2.970692710226865</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-16.06027680458937</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.68160482480835</v>
+        <v>-12.69698564041167</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.988002148101394</v>
+        <v>-3.995927228232663</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.80715543052856</v>
+        <v>-2.676408719886653</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-15.89603052366986</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.32802442374498</v>
+        <v>-13.34061850543415</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.223989620560512</v>
+        <v>-4.226766576460919</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.620038470711124</v>
+        <v>-2.492621173745587</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-15.74354539255832</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.87430249502659</v>
+        <v>-13.88940952624536</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.162906368765277</v>
+        <v>-4.179137871563434</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.293022579396917</v>
+        <v>-2.165854621781592</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-15.59017467818384</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.50382079722429</v>
+        <v>-14.52108388047137</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.255372155639239</v>
+        <v>-4.275167744443377</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.159802031280351</v>
+        <v>-2.030839808144869</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.44009806947009</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.06944466867828</v>
+        <v>-15.08813045292363</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.499191817099154</v>
+        <v>-4.519833204091269</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.877613443928887</v>
+        <v>-1.765811634896276</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.26973199369697</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.69166368362368</v>
+        <v>-15.70901965800123</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.636211123551313</v>
+        <v>-4.660846829153697</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.795204344180169</v>
+        <v>-1.686409274370711</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-15.07906061269454</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.64355332061202</v>
+        <v>-16.65525760305142</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.60268231445801</v>
+        <v>-4.630735435860368</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.357310666131198</v>
+        <v>-1.251771674895105</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.8618386069286</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.50889775804223</v>
+        <v>-17.52960759113049</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.670380392544181</v>
+        <v>-4.708925322682939</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.457774868239433</v>
+        <v>-1.341807625356211</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.6056386083328</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.80513970469486</v>
+        <v>-18.82514552079428</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.790381066092609</v>
+        <v>-4.825102792861438</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.201136230774467</v>
+        <v>-1.088513068588214</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.32429883983055</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.74597529715711</v>
+        <v>-19.77349551681097</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.755092214527216</v>
+        <v>-4.800105300750902</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.371914129642673</v>
+        <v>-1.244633724869409</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.01465993035226</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.10555432777062</v>
+        <v>-21.13139761806913</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.77991859139741</v>
+        <v>-4.830940267060535</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.101913836410428</v>
+        <v>-0.9850567942774269</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.69177755096831</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.4198611547965</v>
+        <v>-22.44124078182552</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.973831270759858</v>
+        <v>-5.020247501954349</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.176324520924874</v>
+        <v>-1.046628946759354</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.37707252036597</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.99605252365554</v>
+        <v>-24.01385828666485</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.959721596941941</v>
+        <v>-5.010171258801637</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.371112332516499</v>
+        <v>-1.254934862337999</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.07527357590979</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.58000274641238</v>
+        <v>-25.60353842546971</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.126852296687429</v>
+        <v>-5.186713296765936</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.671810699866103</v>
+        <v>-1.547458810206121</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.81256963531311</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.20831826198304</v>
+        <v>-27.2397692431579</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.073801683174535</v>
+        <v>-5.132059089000693</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.137361489761212</v>
+        <v>-2.008907723339888</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.5991293630273</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.24394916215355</v>
+        <v>-29.26044956032939</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.156743684671746</v>
+        <v>-5.229971229524399</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.45101572530814</v>
+        <v>-2.326727392737428</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.44374488702031</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.28089031616439</v>
+        <v>-31.30236772333075</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.378440590058872</v>
+        <v>-5.449981427542439</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.743652120334201</v>
+        <v>-2.61025067896356</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.37116146539702</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.53298199536756</v>
+        <v>-33.5535304912292</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.549257600982013</v>
+        <v>-5.614046719982371</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.332836115879856</v>
+        <v>-3.203257877879142</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.38412724020085</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.7023052328173</v>
+        <v>-35.71853673561545</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.55484084682403</v>
+        <v>-5.613631154398683</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.850870394491297</v>
+        <v>-3.714232430574758</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.49347811994989</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.74893395393493</v>
+        <v>-37.77050425223176</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.468007195860754</v>
+        <v>-5.545898853264443</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.286172898900803</v>
+        <v>-4.142274759786895</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.70984472343873</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.205171003873</v>
+        <v>-40.21420099955619</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.605456734917201</v>
+        <v>-5.688120063022999</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.762572395033597</v>
+        <v>-4.616997326564337</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.99670526995808</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.29586678838557</v>
+        <v>-42.31297586791634</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.62363406244839</v>
+        <v>-5.713068665064866</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.018507015509726</v>
+        <v>-4.864170846734956</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.36986447768466</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.84291469637316</v>
+        <v>-44.85274160017565</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.46070790860845</v>
+        <v>-5.55582353720428</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.623174495802901</v>
+        <v>-5.46601737006592</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.74694147827356</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.95655459011216</v>
+        <v>-46.96811464684898</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.437499793011205</v>
+        <v>-5.54255966157434</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.108369315289274</v>
+        <v>-5.947467210292236</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.16818178074284</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.57027021798871</v>
+        <v>-49.58184371949442</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.369131920984266</v>
+        <v>-5.471165494296781</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.494341740411608</v>
+        <v>-6.330506231294422</v>
       </c>
     </row>
   </sheetData>
